--- a/excelreaad/src/main/resources/Student.xlsx
+++ b/excelreaad/src/main/resources/Student.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,24 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>nithya</t>
-  </si>
-  <si>
-    <t>ammu</t>
-  </si>
-  <si>
-    <t>babitha</t>
-  </si>
-  <si>
-    <t>priya</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nithya</t>
+  </si>
+  <si>
+    <t>Ammu</t>
+  </si>
+  <si>
+    <t>Chinnu</t>
   </si>
 </sst>
 </file>
@@ -355,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,27 +391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>